--- a/cases/goodhostpital2021/指标维度库.xlsx
+++ b/cases/goodhostpital2021/指标维度库.xlsx
@@ -402,7 +402,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DRGs组数</v>
+        <v>CMI当量DRGs组数</v>
       </c>
       <c r="B3" t="str">
         <v>医保价值</v>
